--- a/Proj/Project_2/RCC_Cpp_Project_2_JulioG_v4/Project2CheckOfSheet.xlsx
+++ b/Proj/Project_2/RCC_Cpp_Project_2_JulioG_v4/Project2CheckOfSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CaTFisH\workspace\RCC_Cpp_Julio_G\Proj\Project_2\RCC_Cpp_Project_2_JulioG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A0405-5149-4198-882F-E165ADCEA35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44B56B-4249-4290-ACAF-0D0859B6AF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="28095" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <r>
       <rPr>
@@ -875,7 +875,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Passing Arrays to and from Function</t>
+      <t>s</t>
     </r>
   </si>
   <si>
@@ -885,7 +885,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>s</t>
+      <t>Passing Vectors to and from Functio</t>
     </r>
   </si>
   <si>
@@ -895,7 +895,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Passing Vectors to and from Functio</t>
+      <t>ns</t>
     </r>
   </si>
   <si>
@@ -905,7 +905,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>ns</t>
+      <t>Searching and Sorting Arrays</t>
     </r>
   </si>
   <si>
@@ -915,7 +915,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Searching and Sorting Arrays</t>
+      <t>Bubble Sort</t>
     </r>
   </si>
   <si>
@@ -925,7 +925,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Bubble Sort</t>
+      <t>Selection Sort</t>
     </r>
   </si>
   <si>
@@ -935,7 +935,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Selection Sort</t>
+      <t>Linear or Binary Search</t>
     </r>
   </si>
   <si>
@@ -945,7 +945,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>Linear or Binary Search</t>
+      <t>****** Not r</t>
     </r>
   </si>
   <si>
@@ -955,7 +955,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>****** Not r</t>
+      <t>equired to s</t>
     </r>
   </si>
   <si>
@@ -965,7 +965,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>equired to s</t>
+      <t>how</t>
     </r>
   </si>
   <si>
@@ -975,27 +975,7 @@
         <rFont val="Arial"/>
         <family val="34"/>
       </rPr>
-      <t>how</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="34"/>
-      </rPr>
       <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="34"/>
-      </rPr>
-      <t>Other 30 points from Proj 1 first sheet tab</t>
     </r>
   </si>
   <si>
@@ -1133,18 +1113,6 @@
     <t xml:space="preserve"> ChkWL returns a boolean value.</t>
   </si>
   <si>
-    <t>Do not use global variables -100 pts -  pX, pY, gX, gY, scr, lvs are all global variables in your code.</t>
-  </si>
-  <si>
-    <t>Not used, but could be implemented for variables that need to retain their value across function calls without being global.</t>
-  </si>
-  <si>
-    <t>Not used, but could be applied by adding default values to function parameters.</t>
-  </si>
-  <si>
-    <t>Not currently used, but could be for functions that modify the value of arguments, such as a hypothetical UpdatePosition(int&amp; x, int&amp; y).</t>
-  </si>
-  <si>
     <t>Not used; you can overload functions if you need different implementations based on argument types or counts.</t>
   </si>
   <si>
@@ -1185,6 +1153,22 @@
   </si>
   <si>
     <t>Not used, but could be implemented for features like searching through a high-score list.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Other 30 points from Proj 1 first sheet tab</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not use global variables -100 pts - No longer using global variables. </t>
+  </si>
+  <si>
+    <t>Passing Arrays to and from Function</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1260,12 +1244,6 @@
       <family val="34"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1277,7 +1255,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,6 +1270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1382,12 +1366,93 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1397,113 +1462,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66:M66"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1851,968 +1865,968 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="I5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="12">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="12">
+      <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="12">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="12">
+      <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="12">
+      <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="I10" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="12">
+      <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="12">
+      <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
+      <c r="I12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="12">
+      <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="I13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="12">
+      <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
+      <c r="I15" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="12">
+      <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
+      <c r="I16" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="12">
+      <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="12">
+      <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="2">
         <v>2</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
+      <c r="I18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="12">
+      <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="I19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="12">
+      <c r="B20" s="26">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="26">
         <v>1</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
+      <c r="I22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="12">
+      <c r="B23" s="26">
         <v>2</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="12">
+      <c r="B24" s="26">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
+      <c r="I24" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="12">
+      <c r="B25" s="26">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
+      <c r="I25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="12">
+      <c r="B26" s="26">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="12">
+      <c r="B27" s="26">
         <v>6</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
+      <c r="I27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="12">
+      <c r="B28" s="26">
         <v>7</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
+      <c r="I28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="12">
+      <c r="B29" s="26">
         <v>8</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
+      <c r="I29" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30">
+      <c r="A30" s="7"/>
+      <c r="B30" s="29">
         <v>9</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="37">
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="I30" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="12">
+      <c r="B31" s="26">
         <v>10</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="26">
         <v>1</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
+      <c r="I33" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="12">
+      <c r="B34" s="26">
         <v>2</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="I34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="12">
+      <c r="B35" s="26">
         <v>4</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
+      <c r="I35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="12">
+      <c r="B36" s="26">
         <v>5</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
+      <c r="I36" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="12">
+      <c r="B37" s="26">
         <v>6</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
+      <c r="I37" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="12">
+      <c r="B38" s="26">
         <v>7</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
+      <c r="I38" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="12">
+      <c r="B39" s="26">
         <v>8</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
+      <c r="I39" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="12">
+      <c r="B40" s="26">
         <v>11</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
+      <c r="I40" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="12">
+      <c r="B41" s="26">
         <v>13</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
+      <c r="I41" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="12">
+      <c r="B42" s="26">
         <v>14</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
+      <c r="I42" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>5</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="26">
         <v>1</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="26"/>
+      <c r="I44" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="12">
+      <c r="B45" s="26">
         <v>2</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
+      <c r="I45" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="12">
+      <c r="B46" s="26">
         <v>5</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
+      <c r="I46" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="12">
+      <c r="B47" s="26">
         <v>6</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
+      <c r="I47" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:11" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="12">
+      <c r="B48" s="26">
         <v>11</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="2">
         <v>2</v>
       </c>
-      <c r="I48" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
+      <c r="I48" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="12">
+      <c r="B49" s="26">
         <v>12</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
+      <c r="I49" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="3">
         <v>30</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="53" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2830,631 +2844,946 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="24"/>
+      <c r="G56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="18"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
+      <c r="L56" s="25"/>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>6</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L57" s="14"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="21">
+      <c r="K57" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="15">
         <v>3</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="15" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="7"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="13"/>
       <c r="J58" s="5">
         <v>4</v>
       </c>
       <c r="K58" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L58" s="19"/>
-      <c r="M58" s="16"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="21">
+        <v>132</v>
+      </c>
+      <c r="L58" s="40"/>
+      <c r="M58" s="41"/>
+    </row>
+    <row r="59" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="15">
         <v>5</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="7"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="13"/>
       <c r="J59" s="5">
         <v>4</v>
       </c>
-      <c r="K59" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="L59" s="14"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="21">
+      <c r="K59" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="15">
         <v>8</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="15" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="13"/>
       <c r="J60" s="5">
         <v>4</v>
       </c>
       <c r="K60" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="16"/>
+        <v>134</v>
+      </c>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="21">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15">
         <v>9</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="15" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="7"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="13"/>
       <c r="J61" s="5">
         <v>4</v>
       </c>
-      <c r="K61" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="14"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="40">
+      <c r="K61" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45">
         <v>10</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42" t="s">
+      <c r="D62" s="46"/>
+      <c r="E62" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="45" t="s">
+      <c r="F62" s="48"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="L62" s="47"/>
-      <c r="M62" s="43"/>
+      <c r="K62" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="52"/>
+      <c r="M62" s="53"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="21">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45">
         <v>11</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="46"/>
+      <c r="E63" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="5">
+      <c r="F63" s="48"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="54">
         <v>4</v>
       </c>
-      <c r="K63" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="8"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="57"/>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="21">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45">
         <v>12</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="46"/>
+      <c r="E64" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="5">
+      <c r="F64" s="48"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="54">
         <v>4</v>
       </c>
-      <c r="K64" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="8"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="57"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="21">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45">
         <v>13</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="15" t="s">
+      <c r="D65" s="46"/>
+      <c r="E65" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="5">
+      <c r="F65" s="48"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="54">
         <v>4</v>
       </c>
-      <c r="K65" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="21">
+      <c r="K65" s="55"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="57"/>
+    </row>
+    <row r="66" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="15">
         <v>14</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="15" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="8"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="5">
         <v>5</v>
       </c>
-      <c r="K66" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="21">
+      <c r="K66" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L66" s="21"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="15">
         <v>15</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="5">
         <v>4</v>
       </c>
-      <c r="K67" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
+      <c r="K67" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="21"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
         <v>7</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="15" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="7"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="8"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="15" t="s">
+      <c r="K68" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="21"/>
+      <c r="M68" s="22"/>
+    </row>
+    <row r="69" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="15" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="8"/>
+      <c r="I69" s="13"/>
       <c r="J69" s="5">
         <v>3</v>
       </c>
-      <c r="K69" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="21">
+      <c r="K69" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="21"/>
+      <c r="M69" s="22"/>
+    </row>
+    <row r="70" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="15">
         <v>7</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="15" t="s">
+      <c r="D70" s="16"/>
+      <c r="E70" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="7"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="13"/>
       <c r="J70" s="5">
         <v>2</v>
       </c>
-      <c r="K70" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="8"/>
+      <c r="K70" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="21"/>
+      <c r="M70" s="22"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="21">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="15">
         <v>8</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="15" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="10"/>
+      <c r="G71" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="16"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="5">
         <v>2</v>
       </c>
-      <c r="K71" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="21">
+      <c r="K71" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L71" s="21"/>
+      <c r="M71" s="22"/>
+    </row>
+    <row r="72" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="15">
         <v>9</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="16"/>
+      <c r="E72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="7"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="5">
         <v>2</v>
       </c>
       <c r="K72" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="L72" s="19"/>
-      <c r="M72" s="16"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="21">
+        <v>142</v>
+      </c>
+      <c r="L72" s="40"/>
+      <c r="M72" s="41"/>
+    </row>
+    <row r="73" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="15">
         <v>12</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="15" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="7"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="13"/>
       <c r="J73" s="5">
         <v>2</v>
       </c>
-      <c r="K73" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="L73" s="14"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="15" t="s">
+      <c r="K73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L73" s="21"/>
+      <c r="M73" s="22"/>
+    </row>
+    <row r="74" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="16"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="5">
         <v>5</v>
       </c>
-      <c r="K74" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L74" s="14"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="15" t="s">
+      <c r="K74" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" s="21"/>
+      <c r="M74" s="22"/>
+    </row>
+    <row r="75" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="16"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="5">
         <v>5</v>
       </c>
-      <c r="K75" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L75" s="14"/>
-      <c r="M75" s="8"/>
+      <c r="K75" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L75" s="21"/>
+      <c r="M75" s="22"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="7"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21">
+      <c r="K76" s="20"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="22"/>
+    </row>
+    <row r="77" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
         <v>8</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="15" t="s">
+      <c r="B77" s="16"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L77" s="21"/>
+      <c r="M77" s="22"/>
+    </row>
+    <row r="78" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="15">
+        <v>3</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="L77" s="14"/>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="21">
-        <v>3</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="7"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="8"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="5">
         <v>4</v>
       </c>
-      <c r="K78" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="21">
+      <c r="K78" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L78" s="21"/>
+      <c r="M78" s="22"/>
+    </row>
+    <row r="79" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="15">
         <v>3</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="7"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="5">
         <v>4</v>
       </c>
-      <c r="K79" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="L79" s="14"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="21">
+      <c r="K79" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" s="21"/>
+      <c r="M79" s="22"/>
+    </row>
+    <row r="80" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="15">
         <v>1</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="7"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="5">
         <v>4</v>
       </c>
-      <c r="K80" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="L80" s="14"/>
-      <c r="M80" s="8"/>
+      <c r="K80" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L80" s="21"/>
+      <c r="M80" s="22"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="7"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="13"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="8"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="22"/>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="7"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="14"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="K82" s="20"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="22"/>
+    </row>
+    <row r="83" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="15" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="15" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="16"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="6">
         <v>70</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="L83" s="19"/>
-      <c r="M83" s="16"/>
+      <c r="K83" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="L83" s="40"/>
+      <c r="M83" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="336">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:M80"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:F83"/>
@@ -3470,327 +3799,6 @@
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="G82:I82"/>
     <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
